--- a/Allegati/CostiBenefici.xlsx
+++ b/Allegati/CostiBenefici.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340ADFC4-76D5-42D8-BB5A-56F44731351D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A4DB01-9B16-4C6F-832D-9EBA73493A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CostiBenefici" sheetId="3" r:id="rId1"/>
-    <sheet name="Costo negli anni" sheetId="4" r:id="rId2"/>
+    <sheet name="Costo negli anni" sheetId="4" r:id="rId1"/>
+    <sheet name="Applicazione mobile" sheetId="5" r:id="rId2"/>
     <sheet name="Telecomando meccanico" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -17,12 +17,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>SMD Electrolytic cap., 470uF/25V</t>
   </si>
@@ -171,7 +182,19 @@
     <t>Sviluppo</t>
   </si>
   <si>
-    <t>Evoluzione dei costi negli anni</t>
+    <t>Telefono Android</t>
+  </si>
+  <si>
+    <t>Licenze</t>
+  </si>
+  <si>
+    <t>Studio di fattibilità</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Test di qualità</t>
   </si>
 </sst>
 </file>
@@ -179,10 +202,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_ &quot;CHF&quot;\ * #,##0.00_ ;_ &quot;CHF&quot;\ * \-#,##0.00_ ;_ &quot;CHF&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$CHF-810];&quot;-&quot;#,##0.00&quot; &quot;[$CHF-810]"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;CHF&quot;\ * #,##0.00_ ;_ &quot;CHF&quot;\ * \-#,##0.00_ ;_ &quot;CHF&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$CHF-810];&quot;-&quot;#,##0.00&quot; &quot;[$CHF-810]"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,11 +415,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color theme="0"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
@@ -405,20 +426,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -426,32 +443,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -461,12 +468,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -476,22 +484,339 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Valuta" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="33">
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$CHF-810];&quot;-&quot;#,##0.00&quot; &quot;[$CHF-810]"/>
+      <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$CHF-810];&quot;-&quot;#,##0.00&quot; &quot;[$CHF-810]"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$CHF-810];&quot;-&quot;#,##0.00&quot; &quot;[$CHF-810]"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$CHF-810];&quot;-&quot;#,##0.00&quot; &quot;[$CHF-810]"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$CHF-810];&quot;-&quot;#,##0.00&quot; &quot;[$CHF-810]"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$CHF-810];&quot;-&quot;#,##0.00&quot; &quot;[$CHF-810]"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$CHF-810];&quot;-&quot;#,##0.00&quot; &quot;[$CHF-810]"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$CHF-810];&quot;-&quot;#,##0.00&quot; &quot;[$CHF-810]"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -511,7 +836,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$CHF-810];&quot;-&quot;#,##0.00&quot; &quot;[$CHF-810]"/>
+      <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$CHF-810];&quot;-&quot;#,##0.00&quot; &quot;[$CHF-810]"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -554,7 +879,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$CHF-810];&quot;-&quot;#,##0.00&quot; &quot;[$CHF-810]"/>
+      <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$CHF-810];&quot;-&quot;#,##0.00&quot; &quot;[$CHF-810]"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -684,7 +1009,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -695,39 +1020,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-CH"/>
+              <a:t>Costo negli anni</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -752,200 +1100,57 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="30"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>13</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>14</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>15</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>16</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>17</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>18</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>19</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>20</c:v>
-              </c:pt>
-              <c:pt idx="20">
-                <c:v>21</c:v>
-              </c:pt>
-              <c:pt idx="21">
-                <c:v>22</c:v>
-              </c:pt>
-              <c:pt idx="22">
-                <c:v>23</c:v>
-              </c:pt>
-              <c:pt idx="23">
-                <c:v>24</c:v>
-              </c:pt>
-              <c:pt idx="24">
-                <c:v>25</c:v>
-              </c:pt>
-              <c:pt idx="25">
-                <c:v>26</c:v>
-              </c:pt>
-              <c:pt idx="26">
-                <c:v>27</c:v>
-              </c:pt>
-              <c:pt idx="27">
-                <c:v>28</c:v>
-              </c:pt>
-              <c:pt idx="28">
-                <c:v>29</c:v>
-              </c:pt>
-              <c:pt idx="29">
-                <c:v>30</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:numRef>
+              <c:f>'Costo negli anni'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="30"/>
-              <c:pt idx="0">
-                <c:v>1460.9180000000001</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2921.8360000000002</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>4382.7540000000008</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>5843.6720000000005</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>7304.59</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>8765.5080000000016</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>10226.426000000001</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>11687.344000000001</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>13148.262000000001</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>14609.18</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>16070.098000000002</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>17531.016000000003</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>18991.934000000001</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>20452.852000000003</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>21913.77</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>23374.688000000002</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>24835.606000000003</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>26296.524000000001</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>27757.442000000003</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>29218.36</c:v>
-              </c:pt>
-              <c:pt idx="20">
-                <c:v>30679.278000000002</c:v>
-              </c:pt>
-              <c:pt idx="21">
-                <c:v>32140.196000000004</c:v>
-              </c:pt>
-              <c:pt idx="22">
-                <c:v>33601.114000000001</c:v>
-              </c:pt>
-              <c:pt idx="23">
-                <c:v>35062.032000000007</c:v>
-              </c:pt>
-              <c:pt idx="24">
-                <c:v>36522.950000000004</c:v>
-              </c:pt>
-              <c:pt idx="25">
-                <c:v>37983.868000000002</c:v>
-              </c:pt>
-              <c:pt idx="26">
-                <c:v>39444.786</c:v>
-              </c:pt>
-              <c:pt idx="27">
-                <c:v>40905.704000000005</c:v>
-              </c:pt>
-              <c:pt idx="28">
-                <c:v>42366.622000000003</c:v>
-              </c:pt>
-              <c:pt idx="29">
-                <c:v>43827.54</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'Costo negli anni'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>_ "CHF"\ * #,##0.00_ ;_ "CHF"\ * \-#,##0.00_ ;_ "CHF"\ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7888.9572000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15777.914400000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23666.871600000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31555.828800000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39444.786000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7380-46D4-8BDE-9EC8906A8733}"/>
+              <c16:uniqueId val="{00000000-3C0A-43C1-A31B-4F156DB2947F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -968,200 +1173,57 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="30"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>13</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>14</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>15</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>16</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>17</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>18</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>19</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>20</c:v>
-              </c:pt>
-              <c:pt idx="20">
-                <c:v>21</c:v>
-              </c:pt>
-              <c:pt idx="21">
-                <c:v>22</c:v>
-              </c:pt>
-              <c:pt idx="22">
-                <c:v>23</c:v>
-              </c:pt>
-              <c:pt idx="23">
-                <c:v>24</c:v>
-              </c:pt>
-              <c:pt idx="24">
-                <c:v>25</c:v>
-              </c:pt>
-              <c:pt idx="25">
-                <c:v>26</c:v>
-              </c:pt>
-              <c:pt idx="26">
-                <c:v>27</c:v>
-              </c:pt>
-              <c:pt idx="27">
-                <c:v>28</c:v>
-              </c:pt>
-              <c:pt idx="28">
-                <c:v>29</c:v>
-              </c:pt>
-              <c:pt idx="29">
-                <c:v>30</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:numRef>
+              <c:f>'Costo negli anni'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="30"/>
-              <c:pt idx="0">
-                <c:v>20300</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>20300</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>20300</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>20300</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>20300</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>20300</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>20300</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>20300</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>20300</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>20300</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>20300</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>20300</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>20300</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>20300</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>20300</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>20300</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>20300</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>20300</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>20300</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>20300</c:v>
-              </c:pt>
-              <c:pt idx="20">
-                <c:v>20300</c:v>
-              </c:pt>
-              <c:pt idx="21">
-                <c:v>20300</c:v>
-              </c:pt>
-              <c:pt idx="22">
-                <c:v>20300</c:v>
-              </c:pt>
-              <c:pt idx="23">
-                <c:v>20300</c:v>
-              </c:pt>
-              <c:pt idx="24">
-                <c:v>20300</c:v>
-              </c:pt>
-              <c:pt idx="25">
-                <c:v>20300</c:v>
-              </c:pt>
-              <c:pt idx="26">
-                <c:v>20300</c:v>
-              </c:pt>
-              <c:pt idx="27">
-                <c:v>20300</c:v>
-              </c:pt>
-              <c:pt idx="28">
-                <c:v>20300</c:v>
-              </c:pt>
-              <c:pt idx="29">
-                <c:v>20300</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'Costo negli anni'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>_ "CHF"\ * #,##0.00_ ;_ "CHF"\ * \-#,##0.00_ ;_ "CHF"\ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7380-46D4-8BDE-9EC8906A8733}"/>
+              <c16:uniqueId val="{00000001-3C0A-43C1-A31B-4F156DB2947F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1174,11 +1236,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="456698560"/>
-        <c:axId val="456701840"/>
+        <c:axId val="793050768"/>
+        <c:axId val="793052408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="456698560"/>
+        <c:axId val="793050768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1221,7 +1283,7 @@
             <a:endParaRPr lang="it-CH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456701840"/>
+        <c:crossAx val="793052408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1229,7 +1291,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="456701840"/>
+        <c:axId val="793052408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,7 +1311,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_ &quot;CHF&quot;\ * #,##0.00_ ;_ &quot;CHF&quot;\ * \-#,##0.00_ ;_ &quot;CHF&quot;\ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1280,7 +1342,7 @@
             <a:endParaRPr lang="it-CH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456698560"/>
+        <c:crossAx val="793050768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1293,7 +1355,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1325,13 +1387,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1928,26 +1983,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>928688</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Grafico 3">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65BAED98-D4D1-4493-A851-C72AB614C4E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD160E81-10E1-4F54-851C-77EE6D4C8CDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1965,18 +2022,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC2C3857-1ECE-4168-9DB5-A7B0AF43DF12}" name="Tabella1" displayName="Tabella1" ref="A1:E31" totalsRowShown="0">
-  <autoFilter ref="A1:E31" xr:uid="{A17EEDF1-F1B1-4564-9661-6EE4B350612B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC2C3857-1ECE-4168-9DB5-A7B0AF43DF12}" name="Tabella1" displayName="Tabella1" ref="A1:E6" totalsRowShown="0">
+  <autoFilter ref="A1:E6" xr:uid="{A17EEDF1-F1B1-4564-9661-6EE4B350612B}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5FE0A9BE-CF43-458C-986D-EA59F3BBC7A9}" name="Anno"/>
     <tableColumn id="2" xr3:uid="{14BFA1DF-2DAC-45C3-8DA8-77C5E40409DE}" name="Studenti">
       <calculatedColumnFormula>18*3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{29BC7990-43DD-4F45-9775-80CBDD47B885}" name="Telecomando meccanico" dataCellStyle="Valuta">
-      <calculatedColumnFormula>'Telecomando meccanico'!$D$45*B2*A2</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{29BC7990-43DD-4F45-9775-80CBDD47B885}" name="Telecomando meccanico">
+      <calculatedColumnFormula>'Telecomando meccanico'!$D$44*B2*A2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A2847A60-FC92-494A-BB9C-626E70F7A743}" name="Applicazione mobile" dataCellStyle="Valuta"/>
-    <tableColumn id="5" xr3:uid="{3D8FD132-5786-4E51-ACAD-61415E5226FA}" name="Differenza" dataCellStyle="Valuta">
+    <tableColumn id="4" xr3:uid="{A2847A60-FC92-494A-BB9C-626E70F7A743}" name="Applicazione mobile">
+      <calculatedColumnFormula>'Applicazione mobile'!$D$12</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{3D8FD132-5786-4E51-ACAD-61415E5226FA}" name="Differenza">
       <calculatedColumnFormula>D2-C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1985,13 +2044,41 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5E347610-584D-4E5D-9C11-68C601D17B1C}" name="Tabella2" displayName="Tabella2" ref="A1:D38" totalsRowCount="1" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6A03F101-E61A-41E6-B6E6-E537FA23D3EE}" name="Tabella24" displayName="Tabella24" ref="A1:D4" totalsRowCount="1" headerRowDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20">
+  <autoFilter ref="A1:D3" xr:uid="{6A03F101-E61A-41E6-B6E6-E537FA23D3EE}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{8FE34EB2-DF32-413A-BFBA-9A6409325908}" name="Descrizione" totalsRowLabel="Totale" dataDxfId="18" totalsRowDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{0E18B6DB-0F4D-46A7-97F9-EA5E077C654B}" name="Quantità" dataDxfId="17" totalsRowDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{AFA2D218-4F00-45BF-B6FA-27358311C32F}" name="Costo unitario" dataDxfId="16" totalsRowDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{11AC899B-6193-4BCF-8861-FD9FDF41AE1C}" name="Totale" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C92C78B3-08A8-4BAD-987C-B5F90B3F394F}" name="Tabella249" displayName="Tabella249" ref="A6:D10" totalsRowCount="1" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="A6:D9" xr:uid="{C92C78B3-08A8-4BAD-987C-B5F90B3F394F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E7BD6385-F080-4178-A63E-03AEBE7F4A6E}" name="Descrizione" totalsRowLabel="Totale" dataDxfId="7" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{2E407721-4CD8-4B07-867C-DD09FB9423FB}" name="Ore" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{B6DCA0E8-CF50-46DB-8693-5A814491A82C}" name="Costo orario" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{B7728438-26C8-4A32-ACBC-E57544818AEB}" name="Totale" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="0">
+      <calculatedColumnFormula>B7*C7</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5E347610-584D-4E5D-9C11-68C601D17B1C}" name="Tabella2" displayName="Tabella2" ref="A1:D38" totalsRowCount="1" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30">
   <autoFilter ref="A1:D37" xr:uid="{D47E563C-DD31-40CD-829A-E74C0E9442CF}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4EB12F33-6ECC-401D-B5A0-148B1EFD6390}" name="Descrizione" totalsRowLabel="Totale" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{72CD5DD9-4CAE-4FE3-93B7-CE3461C502DA}" name="Quantità" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{23D67D32-9C79-4D98-BE44-ADD19537F800}" name="Costo unitario" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{823BCE49-BFBD-4300-9C72-0013214865CE}" name="Totale" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4EB12F33-6ECC-401D-B5A0-148B1EFD6390}" name="Descrizione" totalsRowLabel="Totale" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{72CD5DD9-4CAE-4FE3-93B7-CE3461C502DA}" name="Quantità" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{23D67D32-9C79-4D98-BE44-ADD19537F800}" name="Costo unitario" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{823BCE49-BFBD-4300-9C72-0013214865CE}" name="Totale" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2259,35 +2346,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E77182-153E-4943-964E-D718495615E9}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE196394-3F6B-44DF-BFB4-00B7A7FCE76A}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE196394-3F6B-44DF-BFB4-00B7A7FCE76A}">
-  <dimension ref="A1:E31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" customWidth="1"/>
@@ -2295,7 +2361,7 @@
     <col min="5" max="5" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -2312,7 +2378,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2320,39 +2386,41 @@
         <f>18*3</f>
         <v>54</v>
       </c>
-      <c r="C2" s="31">
-        <f>'Telecomando meccanico'!$D$45*B2*A2</f>
+      <c r="C2" s="19">
+        <f>'Telecomando meccanico'!$D$44*B2*A2</f>
         <v>7888.9572000000007</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="19">
+        <f>'Applicazione mobile'!$D$12</f>
         <v>20300</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="19">
         <f>D2-C2</f>
         <v>12411.042799999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B31" si="0">18*3</f>
+        <f t="shared" ref="B3:B6" si="0">18*3</f>
         <v>54</v>
       </c>
-      <c r="C3" s="31">
-        <f>'Telecomando meccanico'!$D$45*B3*A3</f>
+      <c r="C3" s="19">
+        <f>'Telecomando meccanico'!$D$44*B3*A3</f>
         <v>15777.914400000001</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="19">
+        <f>'Applicazione mobile'!$D$12</f>
         <v>20300</v>
       </c>
-      <c r="E3" s="31">
-        <f t="shared" ref="E3:E31" si="1">D3-C3</f>
+      <c r="E3" s="19">
+        <f t="shared" ref="E3:E6" si="1">D3-C3</f>
         <v>4522.0855999999985</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2360,19 +2428,20 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="C4" s="31">
-        <f>'Telecomando meccanico'!$D$45*B4*A4</f>
+      <c r="C4" s="19">
+        <f>'Telecomando meccanico'!$D$44*B4*A4</f>
         <v>23666.871600000002</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="19">
+        <f>'Applicazione mobile'!$D$12</f>
         <v>20300</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="19">
         <f t="shared" si="1"/>
         <v>-3366.8716000000022</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2380,19 +2449,20 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="C5" s="31">
-        <f>'Telecomando meccanico'!$D$45*B5*A5</f>
+      <c r="C5" s="19">
+        <f>'Telecomando meccanico'!$D$44*B5*A5</f>
         <v>31555.828800000003</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="19">
+        <f>'Applicazione mobile'!$D$12</f>
         <v>20300</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="19">
         <f t="shared" si="1"/>
         <v>-11255.828800000003</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2400,521 +2470,22 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="C6" s="31">
-        <f>'Telecomando meccanico'!$D$45*B6*A6</f>
+      <c r="C6" s="19">
+        <f>'Telecomando meccanico'!$D$44*B6*A6</f>
         <v>39444.786000000007</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="19">
+        <f>'Applicazione mobile'!$D$12</f>
         <v>20300</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="19">
         <f t="shared" si="1"/>
         <v>-19144.786000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C7" s="31">
-        <f>'Telecomando meccanico'!$D$45*B7*A7</f>
-        <v>47333.743200000004</v>
-      </c>
-      <c r="D7" s="31">
-        <v>20300</v>
-      </c>
-      <c r="E7" s="31">
-        <f t="shared" si="1"/>
-        <v>-27033.743200000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C8" s="31">
-        <f>'Telecomando meccanico'!$D$45*B8*A8</f>
-        <v>55222.700400000002</v>
-      </c>
-      <c r="D8" s="31">
-        <v>20300</v>
-      </c>
-      <c r="E8" s="31">
-        <f t="shared" si="1"/>
-        <v>-34922.700400000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C9" s="31">
-        <f>'Telecomando meccanico'!$D$45*B9*A9</f>
-        <v>63111.657600000006</v>
-      </c>
-      <c r="D9" s="31">
-        <v>20300</v>
-      </c>
-      <c r="E9" s="31">
-        <f t="shared" si="1"/>
-        <v>-42811.657600000006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C10" s="31">
-        <f>'Telecomando meccanico'!$D$45*B10*A10</f>
-        <v>71000.61480000001</v>
-      </c>
-      <c r="D10" s="31">
-        <v>20300</v>
-      </c>
-      <c r="E10" s="31">
-        <f t="shared" si="1"/>
-        <v>-50700.61480000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C11" s="31">
-        <f>'Telecomando meccanico'!$D$45*B11*A11</f>
-        <v>78889.572000000015</v>
-      </c>
-      <c r="D11" s="31">
-        <v>20300</v>
-      </c>
-      <c r="E11" s="31">
-        <f t="shared" si="1"/>
-        <v>-58589.572000000015</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C12" s="31">
-        <f>'Telecomando meccanico'!$D$45*B12*A12</f>
-        <v>86778.529200000004</v>
-      </c>
-      <c r="D12" s="31">
-        <v>20300</v>
-      </c>
-      <c r="E12" s="31">
-        <f t="shared" si="1"/>
-        <v>-66478.529200000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C13" s="31">
-        <f>'Telecomando meccanico'!$D$45*B13*A13</f>
-        <v>94667.486400000009</v>
-      </c>
-      <c r="D13" s="31">
-        <v>20300</v>
-      </c>
-      <c r="E13" s="31">
-        <f t="shared" si="1"/>
-        <v>-74367.486400000009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C14" s="31">
-        <f>'Telecomando meccanico'!$D$45*B14*A14</f>
-        <v>102556.44360000001</v>
-      </c>
-      <c r="D14" s="31">
-        <v>20300</v>
-      </c>
-      <c r="E14" s="31">
-        <f t="shared" si="1"/>
-        <v>-82256.443600000013</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C15" s="31">
-        <f>'Telecomando meccanico'!$D$45*B15*A15</f>
-        <v>110445.4008</v>
-      </c>
-      <c r="D15" s="31">
-        <v>20300</v>
-      </c>
-      <c r="E15" s="31">
-        <f t="shared" si="1"/>
-        <v>-90145.400800000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C16" s="31">
-        <f>'Telecomando meccanico'!$D$45*B16*A16</f>
-        <v>118334.35800000001</v>
-      </c>
-      <c r="D16" s="31">
-        <v>20300</v>
-      </c>
-      <c r="E16" s="31">
-        <f t="shared" si="1"/>
-        <v>-98034.358000000007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C17" s="31">
-        <f>'Telecomando meccanico'!$D$45*B17*A17</f>
-        <v>126223.31520000001</v>
-      </c>
-      <c r="D17" s="31">
-        <v>20300</v>
-      </c>
-      <c r="E17" s="31">
-        <f t="shared" si="1"/>
-        <v>-105923.31520000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C18" s="31">
-        <f>'Telecomando meccanico'!$D$45*B18*A18</f>
-        <v>134112.27240000002</v>
-      </c>
-      <c r="D18" s="31">
-        <v>20300</v>
-      </c>
-      <c r="E18" s="31">
-        <f t="shared" si="1"/>
-        <v>-113812.27240000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C19" s="31">
-        <f>'Telecomando meccanico'!$D$45*B19*A19</f>
-        <v>142001.22960000002</v>
-      </c>
-      <c r="D19" s="31">
-        <v>20300</v>
-      </c>
-      <c r="E19" s="31">
-        <f t="shared" si="1"/>
-        <v>-121701.22960000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C20" s="31">
-        <f>'Telecomando meccanico'!$D$45*B20*A20</f>
-        <v>149890.18680000002</v>
-      </c>
-      <c r="D20" s="31">
-        <v>20300</v>
-      </c>
-      <c r="E20" s="31">
-        <f t="shared" si="1"/>
-        <v>-129590.18680000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C21" s="31">
-        <f>'Telecomando meccanico'!$D$45*B21*A21</f>
-        <v>157779.14400000003</v>
-      </c>
-      <c r="D21" s="31">
-        <v>20300</v>
-      </c>
-      <c r="E21" s="31">
-        <f t="shared" si="1"/>
-        <v>-137479.14400000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C22" s="31">
-        <f>'Telecomando meccanico'!$D$45*B22*A22</f>
-        <v>165668.1012</v>
-      </c>
-      <c r="D22" s="31">
-        <v>20300</v>
-      </c>
-      <c r="E22" s="31">
-        <f t="shared" si="1"/>
-        <v>-145368.1012</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C23" s="31">
-        <f>'Telecomando meccanico'!$D$45*B23*A23</f>
-        <v>173557.05840000001</v>
-      </c>
-      <c r="D23" s="31">
-        <v>20300</v>
-      </c>
-      <c r="E23" s="31">
-        <f t="shared" si="1"/>
-        <v>-153257.05840000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C24" s="31">
-        <f>'Telecomando meccanico'!$D$45*B24*A24</f>
-        <v>181446.01560000001</v>
-      </c>
-      <c r="D24" s="31">
-        <v>20300</v>
-      </c>
-      <c r="E24" s="31">
-        <f t="shared" si="1"/>
-        <v>-161146.01560000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C25" s="31">
-        <f>'Telecomando meccanico'!$D$45*B25*A25</f>
-        <v>189334.97280000002</v>
-      </c>
-      <c r="D25" s="31">
-        <v>20300</v>
-      </c>
-      <c r="E25" s="31">
-        <f t="shared" si="1"/>
-        <v>-169034.97280000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C26" s="31">
-        <f>'Telecomando meccanico'!$D$45*B26*A26</f>
-        <v>197223.93000000002</v>
-      </c>
-      <c r="D26" s="31">
-        <v>20300</v>
-      </c>
-      <c r="E26" s="31">
-        <f t="shared" si="1"/>
-        <v>-176923.93000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C27" s="31">
-        <f>'Telecomando meccanico'!$D$45*B27*A27</f>
-        <v>205112.88720000003</v>
-      </c>
-      <c r="D27" s="31">
-        <v>20300</v>
-      </c>
-      <c r="E27" s="31">
-        <f t="shared" si="1"/>
-        <v>-184812.88720000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C28" s="31">
-        <f>'Telecomando meccanico'!$D$45*B28*A28</f>
-        <v>213001.84440000003</v>
-      </c>
-      <c r="D28" s="31">
-        <v>20300</v>
-      </c>
-      <c r="E28" s="31">
-        <f t="shared" si="1"/>
-        <v>-192701.84440000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C29" s="31">
-        <f>'Telecomando meccanico'!$D$45*B29*A29</f>
-        <v>220890.80160000001</v>
-      </c>
-      <c r="D29" s="31">
-        <v>20300</v>
-      </c>
-      <c r="E29" s="31">
-        <f t="shared" si="1"/>
-        <v>-200590.80160000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C30" s="31">
-        <f>'Telecomando meccanico'!$D$45*B30*A30</f>
-        <v>228779.75880000001</v>
-      </c>
-      <c r="D30" s="31">
-        <v>20300</v>
-      </c>
-      <c r="E30" s="31">
-        <f t="shared" si="1"/>
-        <v>-208479.75880000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C31" s="31">
-        <f>'Telecomando meccanico'!$D$45*B31*A31</f>
-        <v>236668.71600000001</v>
-      </c>
-      <c r="D31" s="31">
-        <v>20300</v>
-      </c>
-      <c r="E31" s="31">
-        <f t="shared" si="1"/>
-        <v>-216368.71600000001</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E31">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2929,8 +2500,9 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -2944,7 +2516,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E31</xm:sqref>
+          <xm:sqref>E2:E6</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2952,15 +2524,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04786B59-9662-4478-9DA7-E798547B5CCF}">
-  <dimension ref="A1:G45"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AFA69E5-E98D-4134-9D81-BEC8718B524A}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -2968,21 +2540,195 @@
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>200</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D3" si="0">B2*C2</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3">
+        <f>SUBTOTAL(109,Tabella24[Totale])</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="23"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="2">
+        <v>200</v>
+      </c>
+      <c r="C8" s="3">
+        <v>80</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ref="D7:D8" si="1">B8*C8</f>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="32">
+        <v>50</v>
+      </c>
+      <c r="C9" s="33">
+        <v>80</v>
+      </c>
+      <c r="D9" s="33">
+        <f>B9*C9</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3">
+        <f>SUBTOTAL(109,Tabella249[Totale])</f>
+        <v>20100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29">
+        <f>Tabella24[[#Totals],[Totale]]+Tabella249[[#Totals],[Totale]]</f>
+        <v>20300</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:C12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04786B59-9662-4478-9DA7-E798547B5CCF}">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2997,7 +2743,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3012,7 +2758,7 @@
         <v>0.29330000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3027,7 +2773,7 @@
         <v>0.65180000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3042,7 +2788,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3057,7 +2803,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3072,7 +2818,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3087,11 +2833,11 @@
         <v>0.13139999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="3">
@@ -3102,7 +2848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3117,7 +2863,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -3132,7 +2878,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -3147,7 +2893,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -3162,14 +2908,14 @@
         <v>0.1764</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>1</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="3">
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="D14" s="3">
@@ -3177,11 +2923,11 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="3">
@@ -3191,13 +2937,12 @@
         <f t="shared" si="0"/>
         <v>1.23E-2</v>
       </c>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="2">
         <v>1</v>
       </c>
       <c r="C16" s="3">
@@ -3208,11 +2953,11 @@
         <v>1.72E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="2">
         <v>1</v>
       </c>
       <c r="C17" s="3">
@@ -3223,11 +2968,11 @@
         <v>1.95E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="2">
         <v>1</v>
       </c>
       <c r="C18" s="3">
@@ -3238,7 +2983,7 @@
         <v>1.7100000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -3253,7 +2998,7 @@
         <v>1.9599999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -3268,7 +3013,7 @@
         <v>7.8399999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -3283,7 +3028,7 @@
         <v>0.38879999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -3298,7 +3043,7 @@
         <v>0.1108</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -3311,20 +3056,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="2">
         <v>1</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -3339,7 +3084,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -3354,7 +3099,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -3369,14 +3114,14 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="6">
         <v>1.71</v>
       </c>
       <c r="D28" s="3">
@@ -3384,14 +3129,14 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="6">
         <v>11.7</v>
       </c>
       <c r="D29" s="3">
@@ -3399,14 +3144,14 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="6">
         <v>1.68</v>
       </c>
       <c r="D30" s="3">
@@ -3414,7 +3159,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -3429,7 +3174,7 @@
         <v>0.2387</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -3442,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -3457,7 +3202,7 @@
         <v>0.2752</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -3472,7 +3217,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -3487,7 +3232,7 @@
         <v>4.36E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -3502,94 +3247,84 @@
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+    <row r="37" spans="1:4">
+      <c r="A37" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="8">
         <v>1</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12">
+      <c r="C37" s="9"/>
+      <c r="D37" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="4"/>
       <c r="D38" s="3">
         <f>SUBTOTAL(109,Tabella2[Totale])</f>
         <v>46.091799999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
+    <row r="40" spans="1:4">
+      <c r="A40" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
+    <row r="41" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A41" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="12">
         <v>4</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C41" s="13">
         <v>25</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="13">
         <f>C41*B41</f>
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="30">
-        <v>80</v>
-      </c>
-      <c r="D42" s="30"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+    <row r="42" spans="1:4" ht="15.75" thickTop="1">
+      <c r="A42" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="23">
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="17">
         <f>SUM(D41)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+    <row r="43" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="44" spans="1:4" ht="15.75" thickTop="1">
+      <c r="A44" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="23">
-        <f>Tabella2[[#Totals],[Totale]]+D43</f>
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="17">
+        <f>Tabella2[[#Totals],[Totale]]+D42</f>
         <v>146.09180000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A44:C44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Allegati/CostiBenefici.xlsx
+++ b/Allegati/CostiBenefici.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A4DB01-9B16-4C6F-832D-9EBA73493A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA8A498-D872-4232-8874-7E43A54C1A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Costo negli anni" sheetId="4" r:id="rId1"/>
@@ -428,7 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -475,6 +475,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -484,337 +502,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="33">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$CHF-810];&quot;-&quot;#,##0.00&quot; &quot;[$CHF-810]"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$CHF-810];&quot;-&quot;#,##0.00&quot; &quot;[$CHF-810]"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$CHF-810];&quot;-&quot;#,##0.00&quot; &quot;[$CHF-810]"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$CHF-810];&quot;-&quot;#,##0.00&quot; &quot;[$CHF-810]"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$CHF-810];&quot;-&quot;#,##0.00&quot; &quot;[$CHF-810]"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$CHF-810];&quot;-&quot;#,##0.00&quot; &quot;[$CHF-810]"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$CHF-810];&quot;-&quot;#,##0.00&quot; &quot;[$CHF-810]"/>
       <fill>
@@ -943,6 +636,302 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$CHF-810];&quot;-&quot;#,##0.00&quot; &quot;[$CHF-810]"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$CHF-810];&quot;-&quot;#,##0.00&quot; &quot;[$CHF-810]"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$CHF-810];&quot;-&quot;#,##0.00&quot; &quot;[$CHF-810]"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$CHF-810];&quot;-&quot;#,##0.00&quot; &quot;[$CHF-810]"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$CHF-810];&quot;-&quot;#,##0.00&quot; &quot;[$CHF-810]"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$CHF-810];&quot;-&quot;#,##0.00&quot; &quot;[$CHF-810]"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -2044,26 +2033,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6A03F101-E61A-41E6-B6E6-E537FA23D3EE}" name="Tabella24" displayName="Tabella24" ref="A1:D4" totalsRowCount="1" headerRowDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6A03F101-E61A-41E6-B6E6-E537FA23D3EE}" name="Tabella24" displayName="Tabella24" ref="A1:D4" totalsRowCount="1" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30">
   <autoFilter ref="A1:D3" xr:uid="{6A03F101-E61A-41E6-B6E6-E537FA23D3EE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8FE34EB2-DF32-413A-BFBA-9A6409325908}" name="Descrizione" totalsRowLabel="Totale" dataDxfId="18" totalsRowDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{0E18B6DB-0F4D-46A7-97F9-EA5E077C654B}" name="Quantità" dataDxfId="17" totalsRowDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{AFA2D218-4F00-45BF-B6FA-27358311C32F}" name="Costo unitario" dataDxfId="16" totalsRowDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{11AC899B-6193-4BCF-8861-FD9FDF41AE1C}" name="Totale" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{8FE34EB2-DF32-413A-BFBA-9A6409325908}" name="Descrizione" totalsRowLabel="Totale" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{0E18B6DB-0F4D-46A7-97F9-EA5E077C654B}" name="Quantità" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{AFA2D218-4F00-45BF-B6FA-27358311C32F}" name="Costo unitario" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{11AC899B-6193-4BCF-8861-FD9FDF41AE1C}" name="Totale" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C92C78B3-08A8-4BAD-987C-B5F90B3F394F}" name="Tabella249" displayName="Tabella249" ref="A6:D10" totalsRowCount="1" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C92C78B3-08A8-4BAD-987C-B5F90B3F394F}" name="Tabella249" displayName="Tabella249" ref="A6:D10" totalsRowCount="1" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19">
   <autoFilter ref="A6:D9" xr:uid="{C92C78B3-08A8-4BAD-987C-B5F90B3F394F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E7BD6385-F080-4178-A63E-03AEBE7F4A6E}" name="Descrizione" totalsRowLabel="Totale" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{2E407721-4CD8-4B07-867C-DD09FB9423FB}" name="Ore" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{B6DCA0E8-CF50-46DB-8693-5A814491A82C}" name="Costo orario" dataDxfId="5" totalsRowDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{B7728438-26C8-4A32-ACBC-E57544818AEB}" name="Totale" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="0">
+    <tableColumn id="1" xr3:uid="{E7BD6385-F080-4178-A63E-03AEBE7F4A6E}" name="Descrizione" totalsRowLabel="Totale" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{2E407721-4CD8-4B07-867C-DD09FB9423FB}" name="Ore" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{B6DCA0E8-CF50-46DB-8693-5A814491A82C}" name="Costo orario" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{B7728438-26C8-4A32-ACBC-E57544818AEB}" name="Totale" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>B7*C7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2072,13 +2061,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5E347610-584D-4E5D-9C11-68C601D17B1C}" name="Tabella2" displayName="Tabella2" ref="A1:D38" totalsRowCount="1" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5E347610-584D-4E5D-9C11-68C601D17B1C}" name="Tabella2" displayName="Tabella2" ref="A1:D38" totalsRowCount="1" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="A1:D37" xr:uid="{D47E563C-DD31-40CD-829A-E74C0E9442CF}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4EB12F33-6ECC-401D-B5A0-148B1EFD6390}" name="Descrizione" totalsRowLabel="Totale" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{72CD5DD9-4CAE-4FE3-93B7-CE3461C502DA}" name="Quantità" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{23D67D32-9C79-4D98-BE44-ADD19537F800}" name="Costo unitario" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{823BCE49-BFBD-4300-9C72-0013214865CE}" name="Totale" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{4EB12F33-6ECC-401D-B5A0-148B1EFD6390}" name="Descrizione" totalsRowLabel="Totale" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{72CD5DD9-4CAE-4FE3-93B7-CE3461C502DA}" name="Quantità" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{23D67D32-9C79-4D98-BE44-ADD19537F800}" name="Costo unitario" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{823BCE49-BFBD-4300-9C72-0013214865CE}" name="Totale" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2349,8 +2338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE196394-3F6B-44DF-BFB4-00B7A7FCE76A}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2528,7 +2517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AFA69E5-E98D-4134-9D81-BEC8718B524A}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2596,10 +2585,9 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="23"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="10" t="s">
@@ -2640,21 +2628,21 @@
         <v>80</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D7:D8" si="1">B8*C8</f>
+        <f t="shared" ref="D8" si="1">B8*C8</f>
         <v>16000</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="8">
         <v>50</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="9">
         <v>80</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="9">
         <f>B9*C9</f>
         <v>4000</v>
       </c>
@@ -2671,17 +2659,17 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="22">
         <f>Tabella24[[#Totals],[Totale]]+Tabella249[[#Totals],[Totale]]</f>
         <v>20300</v>
       </c>
@@ -3312,11 +3300,11 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="44" spans="1:4" ht="15.75" thickTop="1">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="28"/>
       <c r="D44" s="17">
         <f>Tabella2[[#Totals],[Totale]]+D42</f>
         <v>146.09180000000001</v>
